--- a/biology/Botanique/Aonori/Aonori.xlsx
+++ b/biology/Botanique/Aonori/Aonori.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -506,7 +518,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aonori (ou ao nori) est le nom japonais commercialement utilisé pour désigner un type d'algues vertes  comestibles appartenant aux genres Enteromorpha (de la famille des Ulvaceae) et Monostroma (famille des Gomontiaceae).
@@ -544,7 +558,9 @@
           <t>Nutrition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est riche en minéraux : calcium, magnésium, lithium, et contient des  vitamines et des acides aminés comme la méthionine.
 Cette espèce d'algue a une teneur énergétique de 224kcal pour 100g d'algues déshydratées et contient une quantité assez importante de protéines : 13.7g pour 100g de produit sec. L'algue Aonori est également intéressante pour son taux d'iode de 9,4g pour 100g. De plus, son taux de fer est considérable : 234.1mg pour 100g. Et elle contient plus de vitamine B que la plupart des légumes, et un fort taux de vitamine A : 0.98mg pour 100g.
@@ -577,7 +593,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les algues de cette famille ont une durée de vie inférieure à un an,. Leur cycle reproductif comporte deux stades différents (digénétique) et est haplodiplobiontique. Les sporophytes diploïdes vont produire par méiose des spores à n chromosomes qui se fixent puis donnent des gamétophytes haploïdes mâles ou femelles qui à leur tout vont produire des gamètes mâles ou femelles. Lors de la fécondation, les gamètes vont fusionner pour produire des zygotes diploïdes. Le zygote se fixe, perd ses flagelles et se développe en nouveau sporophyte.
 </t>
@@ -608,7 +626,9 @@
           <t>Recettes utilisant habituellement de l’Aonori</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L'okonomiyaki.
 Les takoyaki.
